--- a/UCED/LR/PNW0/scenario_parameters.xlsx
+++ b/UCED/LR/PNW0/scenario_parameters.xlsx
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5420.730743926406</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -543,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>327.65</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/UCED/LR/PNW0/scenario_parameters.xlsx
+++ b/UCED/LR/PNW0/scenario_parameters.xlsx
@@ -129,7 +129,7 @@
     <t>MID</t>
   </si>
   <si>
-    <t>2025</t>
+    <t>2020</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5958.610736490592</v>
+        <v>5426.762192059843</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>31877.26319083061</v>
+        <v>22403.10946375213</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5420.730743926406</v>
+        <v>4574.0666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6511.306216703428</v>
+        <v>6511.306216703429</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>210.5145045026957</v>
+        <v>179.3685787598049</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -596,10 +596,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>510.3150064798497</v>
+        <v>329.1468531266821</v>
       </c>
       <c r="C2">
-        <v>137.6097747242765</v>
+        <v>88.75659882689112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -607,10 +607,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>325.3258166309042</v>
+        <v>209.8311188682598</v>
       </c>
       <c r="C3">
-        <v>87.72623138672627</v>
+        <v>56.58233175214308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -618,10 +618,10 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>237.61542489218</v>
+        <v>153.2590034871113</v>
       </c>
       <c r="C4">
-        <v>64.07455135599123</v>
+        <v>41.32729132877117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -629,10 +629,10 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>144.1639893305575</v>
+        <v>92.98398600828769</v>
       </c>
       <c r="C5">
-        <v>38.87476135960811</v>
+        <v>25.07373916859674</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -640,10 +640,10 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>62.35411485425664</v>
+        <v>40.21763111641647</v>
       </c>
       <c r="C6">
-        <v>16.81419434912253</v>
+        <v>10.84494691916076</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -651,10 +651,10 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>23.12364873111819</v>
+        <v>14.91446678230278</v>
       </c>
       <c r="C7">
-        <v>6.235442917193778</v>
+        <v>4.021783384343503</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -662,10 +662,10 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>22.64522841254333</v>
+        <v>14.60589160749652</v>
       </c>
       <c r="C8">
-        <v>6.106433753389769</v>
+        <v>3.938574072943293</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -673,10 +673,10 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>22.32628153349343</v>
+        <v>14.40017482429234</v>
       </c>
       <c r="C9">
-        <v>6.020427644187097</v>
+        <v>3.883101198676486</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -684,10 +684,10 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>22.00733465444352</v>
+        <v>14.19445804108817</v>
       </c>
       <c r="C10">
-        <v>5.934421534984424</v>
+        <v>3.827628324409679</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -717,10 +717,10 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>20.89102057776885</v>
+        <v>13.47444929987355</v>
       </c>
       <c r="C13">
-        <v>5.633400152775069</v>
+        <v>3.633473264475855</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -728,10 +728,10 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>38.27362548598872</v>
+        <v>24.68601398450116</v>
       </c>
       <c r="C14">
-        <v>10.32073310432074</v>
+        <v>6.656744912016833</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -739,10 +739,10 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>62.67306173330654</v>
+        <v>40.42334789962064</v>
       </c>
       <c r="C15">
-        <v>16.90020045832521</v>
+        <v>10.90041979342756</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -750,10 +750,10 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>143.5260955724577</v>
+        <v>92.57255244187934</v>
       </c>
       <c r="C16">
-        <v>38.70274914120277</v>
+        <v>24.96279342006313</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -761,10 +761,10 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>317.1926712151316</v>
+        <v>204.5853408965533</v>
       </c>
       <c r="C17">
-        <v>85.53307560205812</v>
+        <v>55.16777345833951</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -772,10 +772,10 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>593.2411950328253</v>
+        <v>382.6332167597679</v>
       </c>
       <c r="C18">
-        <v>159.9713631169714</v>
+        <v>103.1795461362609</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -783,10 +783,10 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>720.3415263342126</v>
+        <v>464.6113548666321</v>
       </c>
       <c r="C19">
-        <v>194.2447976342365</v>
+        <v>125.2854865315835</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -794,10 +794,10 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>904.3738755460088</v>
+        <v>583.3099387754419</v>
       </c>
       <c r="C20">
-        <v>243.8703226441788</v>
+        <v>157.2933349835311</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -805,10 +805,10 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>968.003777916465</v>
+        <v>624.3504370246751</v>
       </c>
       <c r="C21">
-        <v>261.028541430112</v>
+        <v>168.3601733997591</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -816,10 +816,10 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>949.8238058106203</v>
+        <v>612.624580382037</v>
       </c>
       <c r="C22">
-        <v>256.1261932055597</v>
+        <v>165.1982195665511</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -827,10 +827,10 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>899.7491457997851</v>
+        <v>580.3270454189815</v>
       </c>
       <c r="C23">
-        <v>242.62323406074</v>
+        <v>156.4889783066624</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -838,10 +838,10 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>814.4308556539352</v>
+        <v>525.2978059118642</v>
       </c>
       <c r="C24">
-        <v>219.616599849025</v>
+        <v>141.6499844402915</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -849,10 +849,10 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>661.6553005890302</v>
+        <v>426.7594667570637</v>
       </c>
       <c r="C25">
-        <v>178.4196735409448</v>
+        <v>115.078477666491</v>
       </c>
     </row>
   </sheetData>
